--- a/malfiler/Studiestart_2024_vars_single.xlsx
+++ b/malfiler/Studiestart_2024_vars_single.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025C2CC4-4050-46BB-80E4-4B1AF3B8030C}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB56AD00-8FE7-492F-B82C-F95D3DCE4A8B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Variabel</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Går du på det studiet du hadde satt opp som ditt førstevalg?</t>
+  </si>
+  <si>
+    <t>gar_du_pa_det_studiet_du_hadde_satt_opp_som_ditt_forstevalg</t>
   </si>
 </sst>
 </file>
@@ -209,18 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,13 +685,13 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="146" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="132" style="2" customWidth="1"/>
@@ -717,124 +716,116 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -843,7 +834,7 @@
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -857,7 +848,7 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -871,7 +862,7 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -885,7 +876,7 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -899,7 +890,7 @@
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -913,7 +904,7 @@
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -927,7 +918,7 @@
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -941,7 +932,7 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -955,7 +946,7 @@
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -967,9 +958,9 @@
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
